--- a/results/gurobi_cplex_comparison/seed_50_k_25.xlsx
+++ b/results/gurobi_cplex_comparison/seed_50_k_25.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.025</v>
+        <v>0.804</v>
       </c>
       <c r="F2">
-        <v>0.038</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.038</v>
+        <v>1.047</v>
       </c>
       <c r="F3">
-        <v>0.048</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.013</v>
+        <v>1.396</v>
       </c>
       <c r="F4">
-        <v>0.028</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.019</v>
+        <v>3.553</v>
       </c>
       <c r="F5">
-        <v>0.045</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.035</v>
+        <v>2.265</v>
       </c>
       <c r="F6">
-        <v>0.056</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.105</v>
+        <v>2.851</v>
       </c>
       <c r="F7">
-        <v>0.25</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.021</v>
+        <v>3.364</v>
       </c>
       <c r="F8">
-        <v>0.044</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.054</v>
+        <v>3.952</v>
       </c>
       <c r="F9">
-        <v>0.1</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.039</v>
+        <v>4.614</v>
       </c>
       <c r="F10">
-        <v>0.07199999999999999</v>
+        <v>1.052</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.028</v>
+        <v>5.345</v>
       </c>
       <c r="F11">
-        <v>0.057</v>
+        <v>1.113</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.188</v>
+        <v>6.295</v>
       </c>
       <c r="F12">
-        <v>92.24299999999999</v>
+        <v>76.592</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.049</v>
+        <v>6.97</v>
       </c>
       <c r="F13">
-        <v>76.102</v>
+        <v>72.771</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.105</v>
+        <v>8.055</v>
       </c>
       <c r="F14">
-        <v>108.681</v>
+        <v>60.073</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.036</v>
+        <v>8.951000000000001</v>
       </c>
       <c r="F15">
-        <v>19.843</v>
+        <v>2.883</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.121</v>
+        <v>10.078</v>
       </c>
       <c r="F16">
-        <v>96.58199999999999</v>
+        <v>67.78400000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.436</v>
+        <v>11.474</v>
       </c>
       <c r="F17">
-        <v>62.282</v>
+        <v>81.133</v>
       </c>
     </row>
   </sheetData>
